--- a/gsheets/S&P500.xlsx
+++ b/gsheets/S&P500.xlsx
@@ -8,13 +8,19 @@
   <sheets>
     <sheet name="Summary" r:id="rId3" sheetId="1"/>
     <sheet name="NVDA" r:id="rId4" sheetId="2"/>
+    <sheet name="AMD" r:id="rId5" sheetId="3"/>
+    <sheet name="GOOGL" r:id="rId6" sheetId="4"/>
+    <sheet name="AAPL" r:id="rId7" sheetId="5"/>
   </sheets>
   <definedNames/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="36">
+  <si>
+    <t>WorkSheet</t>
+  </si>
   <si>
     <t>Ticker</t>
   </si>
@@ -110,15 +116,33 @@
   </si>
   <si>
     <t>Present Value</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>AAPL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0.00%"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
+  </numFmts>
+  <fonts count="2">
     <font>
+      <sz val="11.00"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11.00"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -132,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -140,12 +164,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="solid"/>
+      <right style="solid">
+        <color rgb="FF0000"/>
+      </right>
+      <top style="solid"/>
+      <bottom style="solid"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <dxfs count="0"/>
 </styleSheet>
@@ -161,6 +208,15 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="20.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+    <col min="2" max="2" width="20.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+    <col min="3" max="3" width="20.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+    <col min="4" max="4" width="20.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+    <col min="5" max="5" width="20.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+    <col min="6" max="6" width="20.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+    <col min="7" max="7" width="20.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -181,28 +237,109 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>0.1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>15.0</v>
       </c>
-      <c r="D2" t="n">
-        <v>2040.655211704112</v>
-      </c>
       <c r="E2">
+        <f>NVDA!F16</f>
+      </c>
+      <c r="F2">
         <f>GOOGLEFINANCE("NVDA")</f>
       </c>
-      <c r="F2">
-        <f>1 - (E2 / D2)</f>
+      <c r="G2">
+        <f>NVDA!F17</f>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E3">
+        <f>AMD!F16</f>
+      </c>
+      <c r="F3">
+        <f>GOOGLEFINANCE("AMD")</f>
+      </c>
+      <c r="G3">
+        <f>AMD!F17</f>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E4">
+        <f>GOOGL!F16</f>
+      </c>
+      <c r="F4">
+        <f>GOOGLEFINANCE("GOOGL")</f>
+      </c>
+      <c r="G4">
+        <f>GOOGL!F17</f>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E5">
+        <f>AAPL!F16</f>
+      </c>
+      <c r="F5">
+        <f>GOOGLEFINANCE("AAPL")</f>
+      </c>
+      <c r="G5">
+        <f>AAPL!F17</f>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" location="NVDA!A1"/>
+    <hyperlink ref="A3" location="AMD!A1"/>
+    <hyperlink ref="A4" location="GOOGL!A1"/>
+    <hyperlink ref="A5" location="AAPL!A1"/>
+  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="0" useFirstPageNumber="false" blackAndWhite="false" orientation="portrait"/>
   <headerFooter differentFirst="false" differentOddEven="false">
@@ -222,29 +359,36 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+    <col min="2" max="2" width="20.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+    <col min="4" max="4" width="30.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+    <col min="5" max="5" width="30.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+    <col min="6" max="6" width="30.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>6</v>
+      <c r="A1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <f>GOOGLEFINANCE("NVDA")</f>
@@ -261,7 +405,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <f>GOOGLEFINANCE("NVDA";"high52")</f>
@@ -278,7 +422,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <f>GOOGLEFINANCE("NVDA";"low52")</f>
@@ -294,10 +438,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="n">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8" t="n">
         <v>1.0245</v>
       </c>
       <c r="D6" t="n">
@@ -311,10 +455,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="n">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8" t="n">
         <v>0.8196</v>
       </c>
       <c r="D7" t="n">
@@ -328,10 +472,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="n">
+      <c r="A8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
@@ -345,10 +489,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="n">
+      <c r="A9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7" t="n">
         <v>15.0</v>
       </c>
       <c r="D9" t="n">
@@ -363,7 +507,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
         <v>3.808E9</v>
@@ -380,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
         <v>2.709E9</v>
@@ -397,7 +541,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
         <v>4.187E9</v>
@@ -414,7 +558,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" t="n">
         <v>2.466E9</v>
@@ -430,84 +574,401 @@
       </c>
     </row>
     <row r="14">
-      <c r="D14" t="s">
-        <v>20</v>
+      <c r="D14" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="F14">
         <f>SUM(F3:F13)</f>
       </c>
     </row>
     <row r="15">
-      <c r="D15" t="s">
-        <v>21</v>
+      <c r="D15" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="F15">
         <f>F14+B12</f>
       </c>
     </row>
     <row r="16">
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16">
+      <c r="D16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="6">
         <f>F15/B13</f>
       </c>
     </row>
     <row r="17">
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17">
+      <c r="D17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="2">
         <f>1-(B3/F16)</f>
       </c>
     </row>
     <row r="18">
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18">
+      <c r="D18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="6">
         <f>$F$16*(1-E18)</f>
       </c>
     </row>
     <row r="19">
-      <c r="E19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19">
+      <c r="E19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="6">
         <f>$F$16*(1-E19)</f>
       </c>
     </row>
     <row r="20">
-      <c r="E20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20">
+      <c r="E20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="6">
         <f>$F$16*(1-E20)</f>
       </c>
     </row>
     <row r="21">
-      <c r="E21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21">
+      <c r="E21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="6">
         <f>$F$16*(1-E21)</f>
       </c>
     </row>
     <row r="22">
-      <c r="E22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22">
+      <c r="E22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="6">
         <f>$F$16*(1-E22)</f>
       </c>
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="D14:E14"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="0" useFirstPageNumber="false" blackAndWhite="false" orientation="portrait"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false" autoPageBreaks="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+    <col min="2" max="2" width="20.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+    <col min="4" max="4" width="30.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+    <col min="5" max="5" width="30.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+    <col min="6" max="6" width="30.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <f>GOOGLEFINANCE("AMD")</f>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>(B10 - B11) * (1+$B$6)</f>
+      </c>
+      <c r="F3">
+        <f>E3/POW(1+$B$8;D3)</f>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <f>GOOGLEFINANCE("AMD";"high52")</f>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f>E3*(1+$B$6)</f>
+      </c>
+      <c r="F4">
+        <f>E4/POW(1+$B$8;D4)</f>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <f>GOOGLEFINANCE("AMD";"low52")</f>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <f>E4*(1+$B$6)</f>
+      </c>
+      <c r="F5">
+        <f>E5/POW(1+$B$8;D5)</f>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8" t="n">
+        <v>0.1285</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <f>E5*(1+$B$6)</f>
+      </c>
+      <c r="F6">
+        <f>E6/POW(1+$B$8;D6)</f>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8" t="n">
+        <v>0.1028</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <f>E6*(1+$B$6)</f>
+      </c>
+      <c r="F7">
+        <f>E7/POW(1+$B$8;D7)</f>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <f>E7*(1+$B$7)</f>
+      </c>
+      <c r="F8">
+        <f>E8/POW(1+$B$8;D8)</f>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <f>E8*(1+$B$7)</f>
+      </c>
+      <c r="F9">
+        <f>E9/POW(1+$B$8;D9)</f>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3.565E9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <f>E9*(1+$B$7)</f>
+      </c>
+      <c r="F10">
+        <f>E10/POW(1+$B$8;D10)</f>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.081E9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <f>E10*(1+$B$7)</f>
+      </c>
+      <c r="F11">
+        <f>E11/POW(1+$B$8;D11)</f>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <f>E11*(1+$B$7)</f>
+      </c>
+      <c r="F12">
+        <f>E12/POW(1+$B$8;D12)</f>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.61567138E9</v>
+      </c>
+      <c r="D13" t="n">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <f>B9 * E12</f>
+      </c>
+      <c r="F13">
+        <f>E13/POW(1+$B$8;D13)</f>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14">
+        <f>SUM(F3:F13)</f>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15">
+        <f>F14+B12</f>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="6">
+        <f>F15/B13</f>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="2">
+        <f>1-(B3/F16)</f>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="6">
+        <f>$F$16*(1-E18)</f>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="6">
+        <f>$F$16*(1-E19)</f>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="6">
+        <f>$F$16*(1-E20)</f>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="6">
+        <f>$F$16*(1-E21)</f>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="6">
+        <f>$F$16*(1-E22)</f>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="D18:D22"/>
     <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
   </mergeCells>
@@ -518,4 +979,636 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false" autoPageBreaks="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+    <col min="2" max="2" width="20.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+    <col min="4" max="4" width="30.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+    <col min="5" max="5" width="30.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+    <col min="6" max="6" width="30.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <f>GOOGLEFINANCE("GOOGL")</f>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>(B10 - B11) * (1+$B$6)</f>
+      </c>
+      <c r="F3">
+        <f>E3/POW(1+$B$8;D3)</f>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <f>GOOGLEFINANCE("GOOGL";"high52")</f>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f>E3*(1+$B$6)</f>
+      </c>
+      <c r="F4">
+        <f>E4/POW(1+$B$8;D4)</f>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <f>GOOGLEFINANCE("GOOGL";"low52")</f>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <f>E4*(1+$B$6)</f>
+      </c>
+      <c r="F5">
+        <f>E5/POW(1+$B$8;D5)</f>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8" t="n">
+        <v>0.1948</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <f>E5*(1+$B$6)</f>
+      </c>
+      <c r="F6">
+        <f>E6/POW(1+$B$8;D6)</f>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8" t="n">
+        <v>0.15584</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <f>E6*(1+$B$6)</f>
+      </c>
+      <c r="F7">
+        <f>E7/POW(1+$B$8;D7)</f>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <f>E7*(1+$B$7)</f>
+      </c>
+      <c r="F8">
+        <f>E8/POW(1+$B$8;D8)</f>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <f>E8*(1+$B$7)</f>
+      </c>
+      <c r="F9">
+        <f>E9/POW(1+$B$8;D9)</f>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6.001E10</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <f>E9*(1+$B$7)</f>
+      </c>
+      <c r="F10">
+        <f>E10/POW(1+$B$8;D10)</f>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.9362E10</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <f>E10*(1+$B$7)</f>
+      </c>
+      <c r="F11">
+        <f>E11/POW(1+$B$8;D11)</f>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <f>E11*(1+$B$7)</f>
+      </c>
+      <c r="F12">
+        <f>E12/POW(1+$B$8;D12)</f>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.2541E10</v>
+      </c>
+      <c r="D13" t="n">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <f>B9 * E12</f>
+      </c>
+      <c r="F13">
+        <f>E13/POW(1+$B$8;D13)</f>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14">
+        <f>SUM(F3:F13)</f>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15">
+        <f>F14+B12</f>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="6">
+        <f>F15/B13</f>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="2">
+        <f>1-(B3/F16)</f>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="6">
+        <f>$F$16*(1-E18)</f>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="6">
+        <f>$F$16*(1-E19)</f>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="6">
+        <f>$F$16*(1-E20)</f>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="6">
+        <f>$F$16*(1-E21)</f>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="6">
+        <f>$F$16*(1-E22)</f>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D14:E14"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="0" useFirstPageNumber="false" blackAndWhite="false" orientation="portrait"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false" autoPageBreaks="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+    <col min="2" max="2" width="20.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+    <col min="4" max="4" width="30.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+    <col min="5" max="5" width="30.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+    <col min="6" max="6" width="30.0" outlineLevel="0" customWidth="true" bestFit="false"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <f>GOOGLEFINANCE("AAPL")</f>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>(B10 - B11) * (1+$B$6)</f>
+      </c>
+      <c r="F3">
+        <f>E3/POW(1+$B$8;D3)</f>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <f>GOOGLEFINANCE("AAPL";"high52")</f>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f>E3*(1+$B$6)</f>
+      </c>
+      <c r="F4">
+        <f>E4/POW(1+$B$8;D4)</f>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <f>GOOGLEFINANCE("AAPL";"low52")</f>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <f>E4*(1+$B$6)</f>
+      </c>
+      <c r="F5">
+        <f>E5/POW(1+$B$8;D5)</f>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8" t="n">
+        <v>0.061399999999999996</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <f>E5*(1+$B$6)</f>
+      </c>
+      <c r="F6">
+        <f>E6/POW(1+$B$8;D6)</f>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8" t="n">
+        <v>0.04912</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <f>E6*(1+$B$6)</f>
+      </c>
+      <c r="F7">
+        <f>E7/POW(1+$B$8;D7)</f>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <f>E7*(1+$B$7)</f>
+      </c>
+      <c r="F8">
+        <f>E8/POW(1+$B$8;D8)</f>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <f>E8*(1+$B$7)</f>
+      </c>
+      <c r="F9">
+        <f>E9/POW(1+$B$8;D9)</f>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9.9584E10</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <f>E9*(1+$B$7)</f>
+      </c>
+      <c r="F10">
+        <f>E10/POW(1+$B$8;D10)</f>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.0833E10</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <f>E10*(1+$B$7)</f>
+      </c>
+      <c r="F11">
+        <f>E11/POW(1+$B$8;D11)</f>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="n">
+        <v>8.1123E10</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <f>E11*(1+$B$7)</f>
+      </c>
+      <c r="F12">
+        <f>E12/POW(1+$B$8;D12)</f>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.5550061E10</v>
+      </c>
+      <c r="D13" t="n">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <f>B9 * E12</f>
+      </c>
+      <c r="F13">
+        <f>E13/POW(1+$B$8;D13)</f>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14">
+        <f>SUM(F3:F13)</f>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15">
+        <f>F14+B12</f>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="6">
+        <f>F15/B13</f>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="2">
+        <f>1-(B3/F16)</f>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="6">
+        <f>$F$16*(1-E18)</f>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="6">
+        <f>$F$16*(1-E19)</f>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="6">
+        <f>$F$16*(1-E20)</f>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="6">
+        <f>$F$16*(1-E21)</f>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="6">
+        <f>$F$16*(1-E22)</f>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D15:E15"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="0" useFirstPageNumber="false" blackAndWhite="false" orientation="portrait"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>